--- a/BC5数据.xlsx
+++ b/BC5数据.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\GitHub\BC-experiment\BC-experiment-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F9A1D4-4609-4B14-A57F-1334DC836C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,26 +553,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,16 +853,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +876,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="23.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -889,7 +890,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="31" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -921,7 +922,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -949,7 +950,7 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -975,7 +976,7 @@
         <v>54.0017</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1001,30 +1002,30 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="31" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1076,7 +1077,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1090,7 +1091,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -1116,44 +1117,44 @@
         <v>1.203527</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+    <row r="13" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="14">
         <v>3.3093599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="14">
         <v>40.373800000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="14">
         <v>3.3083499999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="14">
         <v>39.58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="14">
         <v>2.0577100000000002</v>
       </c>
     </row>
